--- a/Project Writing Rescources/Project Gantt chart.xlsx
+++ b/Project Writing Rescources/Project Gantt chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\OneDrive\Documents\University\Year 3\FYP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\OneDrive\Documents\University\Year 3\Final-Year-Project\Project Writing Rescources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3432317E-F835-448B-9BE1-9ED4EBA5106B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAEEDD0-24B2-4D8E-A958-4AD76C642888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CEB9EBA5-670D-4C27-9B04-1729077AE350}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Task</t>
   </si>
@@ -47,50 +47,56 @@
     <t>End Date</t>
   </si>
   <si>
-    <t>Start Day</t>
-  </si>
-  <si>
     <t>Duration</t>
   </si>
   <si>
-    <t>Write project proposal</t>
+    <t>Research into existing systems (Literature review)</t>
   </si>
   <si>
-    <t>Complete Literature review</t>
+    <t>Use research to design game</t>
   </si>
   <si>
-    <t xml:space="preserve">Implement artefact </t>
+    <t>Design interaction</t>
   </si>
   <si>
-    <t>Create project prototype</t>
+    <t>Game menu and flow design</t>
   </si>
   <si>
-    <t>Complete evaluation</t>
+    <t>Game loop design</t>
   </si>
   <si>
-    <t>Key</t>
+    <t>Meta game design</t>
   </si>
   <si>
-    <t>Write Project Proposal</t>
+    <t>Sound design</t>
   </si>
   <si>
-    <t>Complete Literature Review</t>
+    <t>UI design</t>
   </si>
   <si>
-    <t>Create Project Prototype</t>
+    <t>Development cycle 1</t>
   </si>
   <si>
-    <t>Implement Artefact</t>
+    <t>Development cycle 2</t>
   </si>
   <si>
-    <t>Complete Evaluation</t>
+    <t>Prototype testing</t>
+  </si>
+  <si>
+    <t>Development cycle 3</t>
+  </si>
+  <si>
+    <t>Plan for testing of the effectiveness of the game</t>
+  </si>
+  <si>
+    <t>Testing the effectiveness of the game</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,46 +104,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FBFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF84"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF8400"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF00FB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF007BFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -145,34 +127,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -181,11 +149,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF84"/>
+      <color rgb="FFFF8400"/>
+      <color rgb="FF00FBFF"/>
       <color rgb="FF007BFF"/>
       <color rgb="FFFF00FB"/>
-      <color rgb="FFFF8400"/>
-      <color rgb="FF00FF84"/>
-      <color rgb="FF00FBFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -197,6 +165,1307 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Start Date</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Research into existing systems (Literature review)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Use research to design game</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Design interaction</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Game menu and flow design</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Game loop design</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Meta game design</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sound design</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>UI design</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Development cycle 1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Development cycle 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Prototype testing</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Development cycle 3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Plan for testing of the effectiveness of the game</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Testing the effectiveness of the game</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>45577</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45621</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45621</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45621</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45621</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45621</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45621</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45651</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45672</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45698</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45621</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45731</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-31C7-4530-ABDA-982BC67FFF6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Duration</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00FBFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-31C7-4530-ABDA-982BC67FFF6B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-31C7-4530-ABDA-982BC67FFF6B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-31C7-4530-ABDA-982BC67FFF6B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-31C7-4530-ABDA-982BC67FFF6B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-31C7-4530-ABDA-982BC67FFF6B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-31C7-4530-ABDA-982BC67FFF6B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-31C7-4530-ABDA-982BC67FFF6B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-31C7-4530-ABDA-982BC67FFF6B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00FF84"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-31C7-4530-ABDA-982BC67FFF6B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00FF84"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-31C7-4530-ABDA-982BC67FFF6B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-31C7-4530-ABDA-982BC67FFF6B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00FF84"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-31C7-4530-ABDA-982BC67FFF6B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF8400"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-31C7-4530-ABDA-982BC67FFF6B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-31C7-4530-ABDA-982BC67FFF6B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Research into existing systems (Literature review)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Use research to design game</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Design interaction</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Game menu and flow design</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Game loop design</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Meta game design</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sound design</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>UI design</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Development cycle 1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Development cycle 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Prototype testing</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Development cycle 3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Plan for testing of the effectiveness of the game</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Testing the effectiveness of the game</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-31C7-4530-ABDA-982BC67FFF6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="200543007"/>
+        <c:axId val="200541087"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="200543007"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="200541087"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="200541087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="45775"/>
+          <c:min val="45577"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="200543007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FFE020D-1EB5-308F-5B45-18D2C3CBA89D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -516,17 +1785,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A5BE47-0942-4B78-8694-ADF1D8440691}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="8" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -540,102 +1810,246 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>45555</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45579</v>
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>45577</v>
+      </c>
+      <c r="C2" s="4">
+        <v>45621</v>
+      </c>
+      <c r="D2">
+        <f>C2-B2</f>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45579</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5">
         <v>45621</v>
+      </c>
+      <c r="C3" s="4">
+        <v>45631</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D15" si="0">C3-B3</f>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
         <v>45621</v>
       </c>
-      <c r="C4" s="1">
-        <v>45671</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="C4" s="4">
+        <v>45631</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="H4" s="1">
+        <v>45577</v>
+      </c>
+      <c r="I4" s="1">
+        <v>45775</v>
+      </c>
+      <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>45621</v>
       </c>
-      <c r="C5" s="1">
-        <v>45755</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="3"/>
+      <c r="C5" s="4">
+        <v>45631</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45755</v>
-      </c>
-      <c r="C6" s="1">
-        <v>45775</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="4"/>
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>45621</v>
+      </c>
+      <c r="C6" s="4">
+        <v>45631</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="5"/>
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <v>45621</v>
+      </c>
+      <c r="C7" s="4">
+        <v>45631</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="6"/>
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
+        <v>45621</v>
+      </c>
+      <c r="C8" s="4">
+        <v>45631</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K9" s="2" t="s">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4">
+        <v>45621</v>
+      </c>
+      <c r="C9" s="4">
+        <v>45631</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4">
+        <v>45636</v>
+      </c>
+      <c r="C10" s="4">
+        <v>45651</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="L9" s="7"/>
+      <c r="H10" s="6">
+        <v>45577</v>
+      </c>
+      <c r="I10" s="6">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4">
+        <v>45651</v>
+      </c>
+      <c r="C11" s="4">
+        <v>45672</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4">
+        <v>45672</v>
+      </c>
+      <c r="C12" s="4">
+        <v>45682</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4">
+        <v>45698</v>
+      </c>
+      <c r="C13" s="4">
+        <v>45731</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4">
+        <v>45621</v>
+      </c>
+      <c r="C14" s="4">
+        <v>45636</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4">
+        <v>45731</v>
+      </c>
+      <c r="C15" s="4">
+        <v>45775</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>